--- a/тест кейс раздела музыка.xlsx
+++ b/тест кейс раздела музыка.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
   <si>
     <t>passed</t>
   </si>
@@ -478,7 +478,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,6 +650,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -784,7 +793,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -898,6 +907,21 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -913,21 +937,7 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1269,7 +1279,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1544,43 +1554,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="48" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="51"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="43" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="43" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="50"/>
+      <c r="P6" s="43"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="50"/>
+      <c r="R6" s="43"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="50"/>
+      <c r="T6" s="43"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1590,29 +1600,29 @@
     </row>
     <row r="7" spans="1:124" ht="11.25" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="44"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="52"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="45"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="50"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="50"/>
+      <c r="N7" s="43"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="50"/>
+      <c r="P7" s="43"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="50"/>
+      <c r="R7" s="43"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="50"/>
+      <c r="T7" s="43"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2829,7 +2839,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" ht="28.5">
       <c r="A43" s="25"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -2862,7 +2872,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" ht="42.75">
       <c r="A44" s="25"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -2895,7 +2905,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" ht="28.5">
       <c r="A45" s="25"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -3288,6 +3298,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3295,12 +3311,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42">
@@ -3320,8 +3330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3365,7 +3375,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$9:L$42,"failed")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -3410,7 +3420,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$9:L$42,"passed")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -3537,43 +3547,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="48" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="51"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="43" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="43" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="50"/>
+      <c r="P6" s="43"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="50"/>
+      <c r="R6" s="43"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="50"/>
+      <c r="T6" s="43"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -3583,29 +3593,29 @@
     </row>
     <row r="7" spans="1:124" ht="16.5" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="44"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="42" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="52"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="45"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="50"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="50"/>
+      <c r="N7" s="43"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="50"/>
+      <c r="P7" s="43"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="50"/>
+      <c r="R7" s="43"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="50"/>
+      <c r="T7" s="43"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -3635,7 +3645,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -3671,7 +3683,9 @@
       <c r="I9" s="21"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="53" t="s">
+        <v>1</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -3707,7 +3721,9 @@
       <c r="I10" s="21"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -3778,7 +3794,9 @@
       <c r="I12" s="21"/>
       <c r="J12" s="20"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="53" t="s">
+        <v>1</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="6"/>
       <c r="O12" s="11"/>
@@ -3814,7 +3832,9 @@
       <c r="I13" s="21"/>
       <c r="J13" s="20"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="6"/>
       <c r="O13" s="11"/>
@@ -5281,6 +5301,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
@@ -5288,12 +5314,6 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showErrorMessage="1" sqref="AT15 AH15 AF15 Z15 X15 V15 T15 R15 P15 N15 CJ15 CB15 DJ15:DT15 DH15 DF15 DD15 DB15 CZ15 CX15 CV15 CT15 CR15 CP15 CN15 CL15 CH15 CF15 BZ15 BX15 BV15 BT15 BR15 BP15 BN15 BL15 BJ15 BH15 BF15 BD15 BB15 AZ15 AX15 AV15 AR15 AP15 AN15 AL15 AJ15 AD15 AB15">

--- a/тест кейс раздела музыка.xlsx
+++ b/тест кейс раздела музыка.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
   <si>
     <t>passed</t>
   </si>
@@ -907,21 +907,7 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -937,7 +923,21 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1279,7 +1279,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1554,43 +1554,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="46" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="44"/>
+      <c r="J6" s="52"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="51" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="51" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="43"/>
+      <c r="P6" s="51"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="43"/>
+      <c r="R6" s="51"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="43"/>
+      <c r="T6" s="51"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1600,29 +1600,29 @@
     </row>
     <row r="7" spans="1:124" ht="11.25" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="45"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="43"/>
+      <c r="L7" s="51"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="43"/>
+      <c r="N7" s="51"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="43"/>
+      <c r="P7" s="51"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="43"/>
+      <c r="R7" s="51"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="43"/>
+      <c r="T7" s="51"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -3298,12 +3298,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3311,6 +3305,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42">
@@ -3330,8 +3330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DT61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3420,7 +3420,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$9:L$42,"passed")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -3547,43 +3547,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="46" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="44"/>
+      <c r="J6" s="52"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="51" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="51" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="43"/>
+      <c r="P6" s="51"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="43"/>
+      <c r="R6" s="51"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="43"/>
+      <c r="T6" s="51"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -3593,29 +3593,29 @@
     </row>
     <row r="7" spans="1:124" ht="16.5" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="42" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="45"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="43"/>
+      <c r="L7" s="51"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="43"/>
+      <c r="N7" s="51"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="43"/>
+      <c r="P7" s="51"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="43"/>
+      <c r="R7" s="51"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="43"/>
+      <c r="T7" s="51"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -3683,7 +3683,7 @@
       <c r="I9" s="21"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="53" t="s">
+      <c r="L9" s="43" t="s">
         <v>1</v>
       </c>
       <c r="M9" s="11"/>
@@ -3794,7 +3794,7 @@
       <c r="I12" s="21"/>
       <c r="J12" s="20"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="53" t="s">
+      <c r="L12" s="43" t="s">
         <v>1</v>
       </c>
       <c r="M12" s="11"/>
@@ -3870,7 +3870,9 @@
       <c r="I14" s="21"/>
       <c r="J14" s="20"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="6"/>
       <c r="O14" s="11"/>
@@ -3906,7 +3908,9 @@
       <c r="I15" s="32"/>
       <c r="J15" s="31"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="33"/>
+      <c r="L15" s="33" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="34"/>
       <c r="N15" s="35"/>
       <c r="O15" s="36"/>
@@ -4040,7 +4044,9 @@
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="11"/>
       <c r="N16" s="6"/>
       <c r="O16" s="11"/>
@@ -5301,12 +5307,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
@@ -5314,6 +5314,12 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="R6:R7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showErrorMessage="1" sqref="AT15 AH15 AF15 Z15 X15 V15 T15 R15 P15 N15 CJ15 CB15 DJ15:DT15 DH15 DF15 DD15 DB15 CZ15 CX15 CV15 CT15 CR15 CP15 CN15 CL15 CH15 CF15 BZ15 BX15 BV15 BT15 BR15 BP15 BN15 BL15 BJ15 BH15 BF15 BD15 BB15 AZ15 AX15 AV15 AR15 AP15 AN15 AL15 AJ15 AD15 AB15">
